--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>∑</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>B$1*3+$A2*4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ребер</t>
+  </si>
+  <si>
+    <t>граней</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -697,6 +712,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1046,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1074,7 @@
     <col min="34" max="34" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>-1</v>
       </c>
@@ -1121,62 +1137,47 @@
         <v>-1</v>
       </c>
       <c r="U1" s="3">
-        <f>T1+1</f>
         <v>0</v>
       </c>
       <c r="V1" s="4">
-        <f t="shared" ref="V1" si="1">U1+1</f>
         <v>1</v>
       </c>
       <c r="W1" s="4">
-        <f t="shared" ref="W1" si="2">V1+1</f>
         <v>2</v>
       </c>
       <c r="X1" s="4">
-        <f t="shared" ref="X1" si="3">W1+1</f>
         <v>3</v>
       </c>
       <c r="Y1" s="4">
-        <f t="shared" ref="Y1" si="4">X1+1</f>
         <v>4</v>
       </c>
       <c r="Z1" s="4">
-        <f t="shared" ref="Z1" si="5">Y1+1</f>
         <v>5</v>
       </c>
       <c r="AA1" s="4">
-        <f t="shared" ref="AA1" si="6">Z1+1</f>
         <v>6</v>
       </c>
       <c r="AB1" s="4">
-        <f t="shared" ref="AB1" si="7">AA1+1</f>
         <v>7</v>
       </c>
       <c r="AC1" s="4">
-        <f t="shared" ref="AC1" si="8">AB1+1</f>
         <v>8</v>
       </c>
       <c r="AD1" s="4">
-        <f t="shared" ref="AD1" si="9">AC1+1</f>
         <v>9</v>
       </c>
       <c r="AE1" s="4">
-        <f t="shared" ref="AE1" si="10">AD1+1</f>
         <v>10</v>
       </c>
       <c r="AF1" s="4">
-        <f t="shared" ref="AF1" si="11">AE1+1</f>
         <v>11</v>
       </c>
       <c r="AG1" s="4">
-        <f t="shared" ref="AG1" si="12">AF1+1</f>
         <v>12</v>
       </c>
-      <c r="AH1" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH1" s="10"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>A1+1</f>
         <v>0</v>
@@ -1225,69 +1226,52 @@
         <v>185</v>
       </c>
       <c r="T2" s="12">
-        <f>T1+1</f>
         <v>0</v>
       </c>
       <c r="U2" s="15">
-        <f>IF(B2=0,0,U$1*3+$T2*4)</f>
         <v>0</v>
       </c>
       <c r="V2" s="15">
-        <f t="shared" ref="V2:AG2" si="13">IF(C2=0,0,V$1*3+$T2*4)</f>
         <v>0</v>
       </c>
       <c r="W2" s="15">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X2" s="15">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>12</v>
       </c>
-      <c r="Z2" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="13"/>
+      <c r="AD2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>18</v>
       </c>
-      <c r="AB2" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-      <c r="AD2" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="AF2" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="AH2" s="8">
-        <f>SUM(U2:AG2)</f>
-        <v>120</v>
-      </c>
+      <c r="AH2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A14" si="14">A2+1</f>
+        <f t="shared" ref="A3:A14" si="1">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="15">
@@ -1299,7 +1283,7 @@
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1326,77 +1310,60 @@
       <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="17">
         <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O14" si="15">SUM(B3:N3)</f>
+        <f t="shared" ref="O3:O14" si="2">SUM(B3:N3)</f>
         <v>321</v>
       </c>
       <c r="T3" s="12">
-        <f t="shared" ref="T3:T14" si="16">T2+1</f>
         <v>1</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" ref="U3:U14" si="17">IF(B3=0,0,U$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="V3" s="15">
-        <f t="shared" ref="V3:V14" si="18">IF(C3=0,0,V$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="W3" s="15">
-        <f t="shared" ref="W3:W14" si="19">IF(D3=0,0,W$1*3+$T3*4)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="15">
-        <f t="shared" ref="X3:X14" si="20">IF(E3=0,0,X$1*3+$T3*4)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y14" si="21">IF(F3=0,0,Y$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="16">
-        <f t="shared" ref="Z3:Z14" si="22">IF(G3=0,0,Z$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA14" si="23">IF(H3=0,0,AA$1*3+$T3*4)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="16">
-        <f t="shared" ref="AB3:AB14" si="24">IF(I3=0,0,AB$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC14" si="25">IF(J3=0,0,AC$1*3+$T3*4)</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="16">
-        <f t="shared" ref="AD3:AD14" si="26">IF(K3=0,0,AD$1*3+$T3*4)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE14" si="27">IF(L3=0,0,AE$1*3+$T3*4)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AF3" s="16">
-        <f t="shared" ref="AF3:AF14" si="28">IF(M3=0,0,AF$1*3+$T3*4)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG14" si="29">IF(N3=0,0,AG$1*3+$T3*4)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" ref="AH3:AH14" si="30">SUM(U3:AG3)</f>
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B4" s="15">
@@ -1405,7 +1372,7 @@
       <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="16">
@@ -1432,86 +1399,69 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
         <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="T4" s="12">
-        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V4" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="23"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="25"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <f t="shared" si="30"/>
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="15">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
       <c r="D5">
@@ -1538,86 +1488,69 @@
       <c r="K5" s="16">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X5" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="21"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="16">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="23"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="16">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD5" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <f t="shared" si="30"/>
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="16">
@@ -1644,86 +1577,69 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="U6" s="15">
-        <f t="shared" si="17"/>
+      <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X6" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="21"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="16">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB6" s="16">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
-        <f t="shared" si="30"/>
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -1750,89 +1666,75 @@
       <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
         <v>0</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="U7">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V7" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X7" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z7" s="16">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB7" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -1856,92 +1758,75 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="U8">
-        <f t="shared" si="17"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="V8" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <f t="shared" si="30"/>
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -1962,95 +1847,78 @@
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="U9">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V9" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X9" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -2068,98 +1936,81 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="U10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V10" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -2174,101 +2025,84 @@
       <c r="E11" s="16">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="U11">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V11" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -2280,104 +2114,87 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="U12">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V12" s="16">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -2386,214 +2203,180 @@
       <c r="C13" s="16">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="U13">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="U14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -2602,118 +2385,137 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" ref="C15:O15" si="31">SUM(C2:C14)</f>
+        <f t="shared" ref="C15:O15" si="3">SUM(C2:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>286</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="3"/>
         <v>705</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <f>SUM(U2:U14)</f>
-        <v>24</v>
-      </c>
-      <c r="V15" s="7">
-        <f t="shared" ref="V15:AH15" si="32">SUM(V2:V14)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <f t="shared" si="32"/>
-        <v>64</v>
-      </c>
-      <c r="Z15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
-        <f t="shared" si="32"/>
-        <v>96</v>
-      </c>
-      <c r="AB15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
-        <f t="shared" si="32"/>
-        <v>84</v>
-      </c>
-      <c r="AD15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="7">
-        <f t="shared" si="32"/>
-        <v>64</v>
-      </c>
-      <c r="AF15" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7">
-        <f t="shared" si="32"/>
-        <v>36</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="32"/>
-        <v>368</v>
-      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="1"/>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="3">
+        <f>T19+1</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19" si="4">U19+1</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19" si="5">V19+1</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" ref="X19" si="6">W19+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" ref="Y19" si="7">X19+1</f>
+        <v>4</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" ref="Z19" si="8">Y19+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" ref="AA19" si="9">Z19+1</f>
+        <v>6</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" ref="AB19" si="10">AA19+1</f>
+        <v>7</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" ref="AC19" si="11">AB19+1</f>
+        <v>8</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" ref="AD19" si="12">AC19+1</f>
+        <v>9</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" ref="AE19" si="13">AD19+1</f>
+        <v>10</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" ref="AF19" si="14">AE19+1</f>
+        <v>11</v>
+      </c>
+      <c r="AG19" s="4">
+        <f t="shared" ref="AG19" si="15">AF19+1</f>
+        <v>12</v>
+      </c>
+      <c r="AH19" s="10"/>
+    </row>
+    <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="I20" s="10" t="s">
         <v>0</v>
       </c>
@@ -2726,6 +2528,791 @@
       <c r="N20" t="s">
         <v>2</v>
       </c>
+      <c r="T20" s="12">
+        <f>T19+1</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f>IF(B2=0,0,(U$19+$T20*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" ref="V20:AG20" si="16">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>IF(F2=0,0,(Y$19+$T20*2)/2+2)</f>
+        <v>4</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T21" s="12">
+        <f t="shared" ref="T21:T32" si="17">T20+1</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" ref="U21:U32" si="18">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" ref="V21:V32" si="19">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" ref="W21:W32" si="20">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" ref="X21:X32" si="21">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ref="Y21:Y32" si="22">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" ref="Z21:Z32" si="23">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21:AA32" si="24">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
+        <v>6</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" ref="AB21:AB32" si="25">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21:AC32" si="26">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
+        <v>7</v>
+      </c>
+      <c r="AD21" s="16">
+        <f t="shared" ref="AD21:AD32" si="27">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21:AE32" si="28">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
+        <v>8</v>
+      </c>
+      <c r="AF21" s="16">
+        <f t="shared" ref="AF21:AF32" si="29">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="17">
+        <f t="shared" ref="AG21:AG32" si="30">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8"/>
+    </row>
+    <row r="22" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T22" s="12">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AD22" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8"/>
+    </row>
+    <row r="23" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T23" s="12">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="Z23" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="24" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T24" s="12">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T25" s="12">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8"/>
+    </row>
+    <row r="26" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T26" s="12">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T27" s="12">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8"/>
+    </row>
+    <row r="28" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T28" s="12">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8"/>
+    </row>
+    <row r="29" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T29" s="12">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8"/>
+    </row>
+    <row r="30" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T30" s="12">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8"/>
+    </row>
+    <row r="31" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T31" s="12">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="8"/>
+    </row>
+    <row r="32" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="T32" s="13">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8"/>
+    </row>
+    <row r="33" spans="20:34" x14ac:dyDescent="0.25">
+      <c r="T33" s="14"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>∑</t>
-  </si>
-  <si>
-    <t>(v)</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>B$1*3+$A2*4</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -203,7 +194,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +404,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -643,6 +640,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -688,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -707,12 +715,21 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -758,12 +775,153 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFFD6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF33CC33"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFEFFD6F"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFF7F61"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -1064,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,47 +1333,49 @@
       <c r="AG1" s="4">
         <v>12</v>
       </c>
-      <c r="AH1" s="10"/>
+      <c r="AH1" s="10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>A1+1</f>
         <v>0</v>
       </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>0</v>
       </c>
       <c r="J2">
         <v>15</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>0</v>
       </c>
       <c r="L2">
         <v>49</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>0</v>
       </c>
       <c r="N2">
@@ -1228,1153 +1388,1361 @@
       <c r="T2" s="12">
         <v>0</v>
       </c>
-      <c r="U2" s="15">
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
-        <v>0</v>
-      </c>
-      <c r="W2" s="15">
-        <v>0</v>
-      </c>
-      <c r="X2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="U2" s="14">
+        <f>IF(B2=0,0,(U$1*3+$T2*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <f t="shared" ref="V2:AG2" si="1">IF(C2=0,0,(V$1*3+$T2*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Z2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="Z2" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AB2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AB2" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AD2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE2">
+      <c r="AD2" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AF2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AF2" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AH2" s="8"/>
+      <c r="AH2" s="8">
+        <f>SUM(U2:AG2)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A14" si="1">A2+1</f>
+        <f t="shared" ref="A3:A14" si="2">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>0</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>0</v>
       </c>
       <c r="J3">
         <v>76</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>0</v>
       </c>
       <c r="L3">
         <v>237</v>
       </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="17">
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
         <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O14" si="2">SUM(B3:N3)</f>
+        <f t="shared" ref="O3:O14" si="3">SUM(B3:N3)</f>
         <v>321</v>
       </c>
       <c r="T3" s="12">
         <v>1</v>
       </c>
-      <c r="U3" s="15">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3">
+      <c r="U3" s="14">
+        <f t="shared" ref="U3:U14" si="4">IF(B3=0,0,(U$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <f t="shared" ref="V3:V14" si="5">IF(C3=0,0,(V$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <f t="shared" ref="W3:W14" si="6">IF(D3=0,0,(W$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <f t="shared" ref="X3:X14" si="7">IF(E3=0,0,(X$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <f t="shared" ref="Y3:Y14" si="8">IF(F3=0,0,(Y$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15">
+        <f t="shared" ref="Z3:Z14" si="9">IF(G3=0,0,(Z$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <f t="shared" ref="AA3:AA14" si="10">IF(H3=0,0,(AA$1*3+$T3*4)/2)</f>
         <v>11</v>
       </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AB3" s="15">
+        <f t="shared" ref="AB3:AB14" si="11">IF(I3=0,0,(AB$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <f t="shared" ref="AC3:AC14" si="12">IF(J3=0,0,(AC$1*3+$T3*4)/2)</f>
         <v>14</v>
       </c>
-      <c r="AD3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="AD3" s="15">
+        <f t="shared" ref="AD3:AD14" si="13">IF(K3=0,0,(AD$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <f t="shared" ref="AE3:AE14" si="14">IF(L3=0,0,(AE$1*3+$T3*4)/2)</f>
         <v>17</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="15">
+        <f t="shared" ref="AF3:AF14" si="15">IF(M3=0,0,(AF$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8"/>
+        <f t="shared" ref="AG3:AG14" si="16">IF(N3=0,0,(AG$1*3+$T3*4)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8">
+        <f t="shared" ref="AH3:AH15" si="17">SUM(U3:AG3)</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4">
         <v>38</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>0</v>
       </c>
       <c r="J4">
         <v>128</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
         <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="T4" s="12">
         <v>2</v>
       </c>
-      <c r="U4" s="15">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="U4" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="18">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AB4" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="AD4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AD4" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF4" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5">
         <v>19</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="T5" s="12">
         <v>3</v>
       </c>
-      <c r="U5" s="15">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="U5" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="Z5" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="16">
+      <c r="AB5" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE5" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF5" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T6" s="12">
         <v>4</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="U6" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="Z6" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD6" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE6" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF6" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
         <v>0</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="12">
         <v>5</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
+      <c r="U7" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC7" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD7" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE7" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF7" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="AI7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T8" s="12">
         <v>6</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="18">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="V8" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB8" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC8" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD8" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE8" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF8" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="12">
         <v>7</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
+      <c r="U9" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA9" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB9" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC9" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD9" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE9" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF9" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17">
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10" s="12">
         <v>8</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="U10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z10" s="17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA10" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB10" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC10" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD10" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE10" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF10" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="12">
         <v>9</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
+      <c r="U11" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y11" s="17">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z11" s="17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA11" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB11" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC11" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD11" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE11" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF11" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="12">
         <v>10</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="16">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="U12" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X12" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y12" s="17">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z12" s="17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA12" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB12" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC12" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD12" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE12" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF12" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13" s="12">
         <v>11</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
+      <c r="U13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="17">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X13" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y13" s="17">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z13" s="17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA13" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB13" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC13" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD13" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE13" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF13" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0</v>
-      </c>
-      <c r="N14" s="17">
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="13">
         <v>12</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V14" s="17">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W14" s="17">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X14" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y14" s="17">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z14" s="17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14" s="17">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB14" s="17">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC14" s="17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD14" s="17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE14" s="17">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF14" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="8"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -2384,937 +2752,1075 @@
         <f>SUM(B2:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:O15" si="3">SUM(C2:C14)</f>
+      <c r="C15" s="19">
+        <f t="shared" ref="C15:O15" si="18">SUM(C2:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" si="3"/>
+      <c r="G15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>66</v>
       </c>
-      <c r="I15" s="7">
-        <f t="shared" si="3"/>
+      <c r="I15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>219</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="3"/>
+      <c r="K15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>286</v>
       </c>
-      <c r="M15" s="7">
-        <f t="shared" si="3"/>
+      <c r="M15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>705</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="1"/>
+      <c r="T15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <f>SUM(U2:U14)</f>
+        <v>12</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" ref="V15:AG15" si="19">SUM(V2:V14)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="19"/>
+        <v>48</v>
+      </c>
+      <c r="AB15" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="19"/>
+        <v>42</v>
+      </c>
+      <c r="AD15" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="AH15" s="22">
+        <f t="shared" si="17"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="17" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="T19" s="11">
+      <c r="T19" s="12">
         <v>-1</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="13">
         <f>T19+1</f>
         <v>0</v>
       </c>
-      <c r="V19" s="4">
-        <f t="shared" ref="V19" si="4">U19+1</f>
+      <c r="V19" s="6">
+        <f t="shared" ref="V19" si="20">U19+1</f>
         <v>1</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" ref="W19" si="5">V19+1</f>
+      <c r="W19" s="6">
+        <f t="shared" ref="W19" si="21">V19+1</f>
         <v>2</v>
       </c>
-      <c r="X19" s="4">
-        <f t="shared" ref="X19" si="6">W19+1</f>
+      <c r="X19" s="6">
+        <f t="shared" ref="X19" si="22">W19+1</f>
         <v>3</v>
       </c>
-      <c r="Y19" s="4">
-        <f t="shared" ref="Y19" si="7">X19+1</f>
+      <c r="Y19" s="6">
+        <f t="shared" ref="Y19" si="23">X19+1</f>
         <v>4</v>
       </c>
-      <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="8">Y19+1</f>
+      <c r="Z19" s="6">
+        <f t="shared" ref="Z19" si="24">Y19+1</f>
         <v>5</v>
       </c>
-      <c r="AA19" s="4">
-        <f t="shared" ref="AA19" si="9">Z19+1</f>
+      <c r="AA19" s="6">
+        <f t="shared" ref="AA19" si="25">Z19+1</f>
         <v>6</v>
       </c>
-      <c r="AB19" s="4">
-        <f t="shared" ref="AB19" si="10">AA19+1</f>
+      <c r="AB19" s="6">
+        <f t="shared" ref="AB19" si="26">AA19+1</f>
         <v>7</v>
       </c>
-      <c r="AC19" s="4">
-        <f t="shared" ref="AC19" si="11">AB19+1</f>
+      <c r="AC19" s="6">
+        <f t="shared" ref="AC19" si="27">AB19+1</f>
         <v>8</v>
       </c>
-      <c r="AD19" s="4">
-        <f t="shared" ref="AD19" si="12">AC19+1</f>
+      <c r="AD19" s="6">
+        <f t="shared" ref="AD19" si="28">AC19+1</f>
         <v>9</v>
       </c>
-      <c r="AE19" s="4">
-        <f t="shared" ref="AE19" si="13">AD19+1</f>
+      <c r="AE19" s="6">
+        <f t="shared" ref="AE19" si="29">AD19+1</f>
         <v>10</v>
       </c>
-      <c r="AF19" s="4">
-        <f t="shared" ref="AF19" si="14">AE19+1</f>
+      <c r="AF19" s="6">
+        <f t="shared" ref="AF19" si="30">AE19+1</f>
         <v>11</v>
       </c>
-      <c r="AG19" s="4">
-        <f t="shared" ref="AG19" si="15">AF19+1</f>
+      <c r="AG19" s="6">
+        <f t="shared" ref="AG19" si="31">AF19+1</f>
         <v>12</v>
       </c>
-      <c r="AH19" s="10"/>
+      <c r="AH19" s="20" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="I20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
+      <c r="I20" s="10"/>
       <c r="T20" s="12">
         <f>T19+1</f>
         <v>0</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="14">
         <f>IF(B2=0,0,(U$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="15">
-        <f t="shared" ref="V20:AG20" si="16">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="15">
-        <f t="shared" si="16"/>
+      <c r="V20" s="14">
+        <f t="shared" ref="V20:AG20" si="32">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y20">
         <f>IF(F2=0,0,(Y$19+$T20*2)/2+2)</f>
         <v>4</v>
       </c>
-      <c r="Z20" s="16">
-        <f t="shared" si="16"/>
+      <c r="Z20" s="15">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="AB20" s="16">
-        <f t="shared" si="16"/>
+      <c r="AB20" s="15">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="AD20" s="16">
-        <f t="shared" si="16"/>
+      <c r="AD20" s="15">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
-      <c r="AF20" s="16">
-        <f t="shared" si="16"/>
+      <c r="AF20" s="15">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="AH20" s="8"/>
+      <c r="AH20" s="8">
+        <f>SUM(U20:AG20)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T21" s="12">
-        <f t="shared" ref="T21:T32" si="17">T20+1</f>
+        <f t="shared" ref="T21:T32" si="33">T20+1</f>
         <v>1</v>
       </c>
-      <c r="U21" s="15">
-        <f t="shared" ref="U21:U32" si="18">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="15">
-        <f t="shared" ref="V21:V32" si="19">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="15">
-        <f t="shared" ref="W21:W32" si="20">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="16">
-        <f t="shared" ref="X21:X32" si="21">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
+      <c r="U21" s="14">
+        <f t="shared" ref="U21:U32" si="34">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" ref="V21:V32" si="35">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <f t="shared" ref="W21:W32" si="36">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" ref="X21:X32" si="37">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" ref="Y21:Y32" si="22">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="16">
-        <f t="shared" ref="Z21:Z32" si="23">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="Y21:Y32" si="38">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <f t="shared" ref="Z21:Z32" si="39">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f t="shared" ref="AA21:AA32" si="24">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AA21:AA32" si="40">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
         <v>6</v>
       </c>
-      <c r="AB21" s="16">
-        <f t="shared" ref="AB21:AB32" si="25">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
+      <c r="AB21" s="15">
+        <f t="shared" ref="AB21:AB32" si="41">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21:AC32" si="26">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AC21:AC32" si="42">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
         <v>7</v>
       </c>
-      <c r="AD21" s="16">
-        <f t="shared" ref="AD21:AD32" si="27">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
+      <c r="AD21" s="15">
+        <f t="shared" ref="AD21:AD32" si="43">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AE21">
-        <f t="shared" ref="AE21:AE32" si="28">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AE21:AE32" si="44">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
         <v>8</v>
       </c>
-      <c r="AF21" s="16">
-        <f t="shared" ref="AF21:AF32" si="29">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="17">
-        <f t="shared" ref="AG21:AG32" si="30">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="8"/>
+      <c r="AF21" s="15">
+        <f t="shared" ref="AF21:AF32" si="45">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="16">
+        <f t="shared" ref="AG21:AG32" si="46">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" ref="AH21:AH32" si="47">SUM(U21:AG21)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T22" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="U22" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
-        <f t="shared" si="19"/>
+      <c r="U22" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="25"/>
+      <c r="AB22" s="15">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="AD22" s="16">
-        <f t="shared" si="27"/>
+      <c r="AD22" s="15">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="8"/>
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="47"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
-      <c r="U23" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="16">
-        <f t="shared" si="19"/>
+      <c r="U23" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="Z23" s="16">
-        <f t="shared" si="23"/>
+      <c r="Z23" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="25"/>
+      <c r="AB23" s="15">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="8"/>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="47"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T24" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="U24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="Z24" s="16">
-        <f t="shared" si="23"/>
+      <c r="Z24" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="15">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="8"/>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T25" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="U25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="8"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T26" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="U26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="V26" s="16">
-        <f t="shared" si="19"/>
+      <c r="V26" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="8"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
       <c r="AI26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T27" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="U27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="8"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T28" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="U28">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="8"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T29" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="U29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="8"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="U30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="8"/>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="U31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="8"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T32" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="U32">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="17">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="17">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="17">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="8"/>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="20:34" x14ac:dyDescent="0.25">
-      <c r="T33" s="14"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="1"/>
+      <c r="T33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <f>SUM(U20:U32)</f>
+        <v>8</v>
+      </c>
+      <c r="V33" s="19">
+        <f t="shared" ref="V33:AH33" si="48">SUM(V20:V32)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="Z33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="AB33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="24">
+        <f t="shared" si="48"/>
+        <v>21</v>
+      </c>
+      <c r="AD33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="AF33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="AH33" s="23">
+        <f t="shared" si="48"/>
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U20:AG32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -775,7 +775,49 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -808,97 +850,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFFD6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1222,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,11 +1184,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>-1</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="3">
-        <f>A1+1</f>
         <v>0</v>
       </c>
       <c r="C1" s="4">
@@ -1291,46 +1239,56 @@
       <c r="O1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="11">
-        <v>-1</v>
-      </c>
+      <c r="T1" s="11"/>
       <c r="U1" s="3">
         <v>0</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
+        <f t="shared" ref="V1:AG1" si="1">U1+1</f>
         <v>1</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="3">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="3">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="3">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AH1" s="10" t="s">
@@ -1339,7 +1297,6 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <f>A1+1</f>
         <v>0</v>
       </c>
       <c r="B2" s="14">
@@ -1393,51 +1350,51 @@
         <v>0</v>
       </c>
       <c r="V2" s="14">
-        <f t="shared" ref="V2:AG2" si="1">IF(C2=0,0,(V$1*3+$T2*4)/2)</f>
+        <f t="shared" ref="V2:AG2" si="2">IF(C2=0,0,(V$1*3+$T2*4)/2)</f>
         <v>0</v>
       </c>
       <c r="W2" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X2" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y2" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Z2" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA2" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AB2" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC2" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AD2" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE2" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AF2" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG2" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AH2" s="8">
@@ -1447,7 +1404,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A14" si="2">A2+1</f>
+        <f t="shared" ref="A3:A14" si="3">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="14">
@@ -1490,72 +1447,73 @@
         <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O14" si="3">SUM(B3:N3)</f>
+        <f t="shared" ref="O3:O14" si="4">SUM(B3:N3)</f>
         <v>321</v>
       </c>
       <c r="T3" s="12">
+        <f t="shared" ref="T3:T14" si="5">T2+1</f>
         <v>1</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" ref="U3:U14" si="4">IF(B3=0,0,(U$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="U3:U14" si="6">IF(B3=0,0,(U$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V14" si="5">IF(C3=0,0,(V$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="V3:V14" si="7">IF(C3=0,0,(V$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W14" si="6">IF(D3=0,0,(W$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="W3:W14" si="8">IF(D3=0,0,(W$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" ref="X3:X14" si="7">IF(E3=0,0,(X$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="X3:X14" si="9">IF(E3=0,0,(X$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="18">
-        <f t="shared" ref="Y3:Y14" si="8">IF(F3=0,0,(Y$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="Y3:Y14" si="10">IF(F3=0,0,(Y$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="15">
-        <f t="shared" ref="Z3:Z14" si="9">IF(G3=0,0,(Z$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="Z3:Z14" si="11">IF(G3=0,0,(Z$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="18">
-        <f t="shared" ref="AA3:AA14" si="10">IF(H3=0,0,(AA$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AA3:AA14" si="12">IF(H3=0,0,(AA$1*3+$T3*4)/2)</f>
         <v>11</v>
       </c>
       <c r="AB3" s="15">
-        <f t="shared" ref="AB3:AB14" si="11">IF(I3=0,0,(AB$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AB3:AB14" si="13">IF(I3=0,0,(AB$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="18">
-        <f t="shared" ref="AC3:AC14" si="12">IF(J3=0,0,(AC$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AC3:AC14" si="14">IF(J3=0,0,(AC$1*3+$T3*4)/2)</f>
         <v>14</v>
       </c>
       <c r="AD3" s="15">
-        <f t="shared" ref="AD3:AD14" si="13">IF(K3=0,0,(AD$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AD3:AD14" si="15">IF(K3=0,0,(AD$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="18">
-        <f t="shared" ref="AE3:AE14" si="14">IF(L3=0,0,(AE$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AE3:AE14" si="16">IF(L3=0,0,(AE$1*3+$T3*4)/2)</f>
         <v>17</v>
       </c>
       <c r="AF3" s="15">
-        <f t="shared" ref="AF3:AF14" si="15">IF(M3=0,0,(AF$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AF3:AF14" si="17">IF(M3=0,0,(AF$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="17">
-        <f t="shared" ref="AG3:AG14" si="16">IF(N3=0,0,(AG$1*3+$T3*4)/2)</f>
+        <f t="shared" ref="AG3:AG14" si="18">IF(N3=0,0,(AG$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="8">
-        <f t="shared" ref="AH3:AH15" si="17">SUM(U3:AG3)</f>
+        <f t="shared" ref="AH3:AH15" si="19">SUM(U3:AG3)</f>
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B4" s="14">
@@ -1598,72 +1556,73 @@
         <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="T4" s="12">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W4" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X4" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y4" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z4" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA4" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="AB4" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC4" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="AD4" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE4" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF4" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG4" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH4" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="14">
@@ -1706,72 +1665,73 @@
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="T5" s="12">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V5" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W5" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X5" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y5" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="Z5" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA5" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="AB5" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC5" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD5" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE5" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF5" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG5" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -1814,72 +1774,73 @@
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="T6" s="12">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="U6" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V6" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W6" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X6" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y6" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="Z6" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA6" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB6" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC6" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD6" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE6" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF6" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG6" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH6" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -1922,66 +1883,67 @@
         <v>0</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T7" s="12">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="U7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V7" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W7" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X7" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z7" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA7" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB7" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC7" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD7" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE7" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF7" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG7" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH7" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI7" t="s">
@@ -1990,7 +1952,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -2033,72 +1995,73 @@
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T8" s="12">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="V8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X8" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z8" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA8" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB8" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC8" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD8" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE8" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF8" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG8" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH8" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -2141,72 +2104,73 @@
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9" s="12">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="U9" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA9" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB9" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC9" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD9" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE9" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF9" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG9" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH9" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -2249,72 +2213,73 @@
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="12">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="U10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X10" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA10" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB10" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC10" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD10" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE10" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF10" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG10" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH10" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -2357,72 +2322,73 @@
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="12">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V11" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X11" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z11" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA11" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB11" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC11" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD11" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE11" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF11" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG11" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -2465,72 +2431,73 @@
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="12">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W12" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X12" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y12" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA12" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB12" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC12" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD12" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE12" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF12" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG12" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH12" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -2573,72 +2540,73 @@
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="12">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="U13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y13" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA13" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB13" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC13" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD13" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF13" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG13" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH13" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -2681,66 +2649,67 @@
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="U14" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X14" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA14" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB14" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC14" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD14" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF14" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG14" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2753,55 +2722,55 @@
         <v>1</v>
       </c>
       <c r="C15" s="19">
-        <f t="shared" ref="C15:O15" si="18">SUM(C2:C14)</f>
+        <f t="shared" ref="C15:O15" si="20">SUM(C2:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E15" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>66</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>219</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>286</v>
       </c>
       <c r="M15" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>119</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>705</v>
       </c>
       <c r="T15" s="21" t="s">
@@ -2812,55 +2781,55 @@
         <v>12</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" ref="V15:AG15" si="19">SUM(V2:V14)</f>
+        <f t="shared" ref="V15:AG15" si="21">SUM(V2:V14)</f>
         <v>0</v>
       </c>
       <c r="W15" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="AB15" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="21"/>
+        <v>42</v>
+      </c>
+      <c r="AD15" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="AH15" s="22">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="Z15" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
-        <f t="shared" si="19"/>
-        <v>48</v>
-      </c>
-      <c r="AB15" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
-        <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="AD15" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="7">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="AF15" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="AH15" s="22">
-        <f t="shared" si="17"/>
         <v>184</v>
       </c>
     </row>
@@ -2870,59 +2839,56 @@
       </c>
     </row>
     <row r="19" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="T19" s="12">
-        <v>-1</v>
-      </c>
+      <c r="T19" s="12"/>
       <c r="U19" s="13">
-        <f>T19+1</f>
         <v>0</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" ref="V19" si="20">U19+1</f>
+        <f t="shared" ref="V19" si="22">U19+1</f>
         <v>1</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" ref="W19" si="21">V19+1</f>
+        <f t="shared" ref="W19" si="23">V19+1</f>
         <v>2</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" ref="X19" si="22">W19+1</f>
+        <f t="shared" ref="X19" si="24">W19+1</f>
         <v>3</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" ref="Y19" si="23">X19+1</f>
+        <f t="shared" ref="Y19" si="25">X19+1</f>
         <v>4</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" ref="Z19" si="24">Y19+1</f>
+        <f t="shared" ref="Z19" si="26">Y19+1</f>
         <v>5</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19" si="25">Z19+1</f>
+        <f t="shared" ref="AA19" si="27">Z19+1</f>
         <v>6</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" ref="AB19" si="26">AA19+1</f>
+        <f t="shared" ref="AB19" si="28">AA19+1</f>
         <v>7</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" ref="AC19" si="27">AB19+1</f>
+        <f t="shared" ref="AC19" si="29">AB19+1</f>
         <v>8</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" ref="AD19" si="28">AC19+1</f>
+        <f t="shared" ref="AD19" si="30">AC19+1</f>
         <v>9</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" ref="AE19" si="29">AD19+1</f>
+        <f t="shared" ref="AE19" si="31">AD19+1</f>
         <v>10</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" ref="AF19" si="30">AE19+1</f>
+        <f t="shared" ref="AF19" si="32">AE19+1</f>
         <v>11</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" ref="AG19" si="31">AF19+1</f>
+        <f t="shared" ref="AG19" si="33">AF19+1</f>
         <v>12</v>
       </c>
       <c r="AH19" s="20" t="s">
@@ -2932,7 +2898,6 @@
     <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="I20" s="10"/>
       <c r="T20" s="12">
-        <f>T19+1</f>
         <v>0</v>
       </c>
       <c r="U20" s="14">
@@ -2940,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" ref="V20:AG20" si="32">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
+        <f t="shared" ref="V20:AG20" si="34">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X20" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y20">
@@ -2956,35 +2921,35 @@
         <v>4</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="AF20" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="AH20" s="8">
@@ -2994,373 +2959,373 @@
     </row>
     <row r="21" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T21" s="12">
-        <f t="shared" ref="T21:T32" si="33">T20+1</f>
+        <f t="shared" ref="T21:T32" si="35">T20+1</f>
         <v>1</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" ref="U21:U32" si="34">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="U21:U32" si="36">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" ref="V21:V32" si="35">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="V21:V32" si="37">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" ref="W21:W32" si="36">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="W21:W32" si="38">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" ref="X21:X32" si="37">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="X21:X32" si="39">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" ref="Y21:Y32" si="38">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="Y21:Y32" si="40">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="15">
-        <f t="shared" ref="Z21:Z32" si="39">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="Z21:Z32" si="41">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f t="shared" ref="AA21:AA32" si="40">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AA21:AA32" si="42">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
         <v>6</v>
       </c>
       <c r="AB21" s="15">
-        <f t="shared" ref="AB21:AB32" si="41">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AB21:AB32" si="43">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21:AC32" si="42">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AC21:AC32" si="44">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
         <v>7</v>
       </c>
       <c r="AD21" s="15">
-        <f t="shared" ref="AD21:AD32" si="43">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AD21:AD32" si="45">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AE21">
-        <f t="shared" ref="AE21:AE32" si="44">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AE21:AE32" si="46">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
         <v>8</v>
       </c>
       <c r="AF21" s="15">
-        <f t="shared" ref="AF21:AF32" si="45">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AF21:AF32" si="47">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="16">
-        <f t="shared" ref="AG21:AG32" si="46">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AG21:AG32" si="48">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" ref="AH21:AH32" si="47">SUM(U21:AG21)</f>
+        <f t="shared" ref="AH21:AH32" si="49">SUM(U21:AG21)</f>
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T22" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="AB22" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF22" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG22" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T23" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="U23" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V23" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X23" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="Z23" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="AB23" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD23" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE23" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF23" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG23" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T24" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="U24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V24" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X24" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="Z24" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB24" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD24" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE24" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF24" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG24" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T25" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="U25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V25" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X25" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z25" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB25" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC25" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD25" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE25" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF25" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG25" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T26" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="U26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="V26" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X26" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z26" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD26" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF26" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG26" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
       <c r="AI26" t="s">
@@ -3369,373 +3334,373 @@
     </row>
     <row r="27" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T27" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="U27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V27" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X27" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z27" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB27" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC27" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD27" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE27" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF27" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG27" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T28" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="U28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z28" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA28" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB28" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC28" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD28" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE28" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF28" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG28" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH28" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T29" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="U29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB29" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC29" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD29" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE29" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF29" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG29" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH29" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T30" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="U30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X30" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y30" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z30" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA30" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB30" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC30" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD30" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE30" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF30" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG30" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH30" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T31" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="U31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W31" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y31" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z31" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA31" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB31" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC31" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD31" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE31" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF31" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG31" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH31" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:35" x14ac:dyDescent="0.25">
       <c r="T32" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="U32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y32" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z32" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA32" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB32" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC32" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD32" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE32" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF32" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG32" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -3748,76 +3713,76 @@
         <v>8</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" ref="V33:AH33" si="48">SUM(V20:V32)</f>
+        <f t="shared" ref="V33:AH33" si="50">SUM(V20:V32)</f>
         <v>0</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19</v>
       </c>
       <c r="Z33" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26</v>
       </c>
       <c r="AB33" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC33" s="24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>21</v>
       </c>
       <c r="AD33" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="AF33" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8</v>
       </c>
       <c r="AH33" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -775,7 +775,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="95">
     <dxf>
       <fill>
         <patternFill>
@@ -815,6 +815,587 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -864,6 +1445,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF7F61"/>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFFF0000"/>
       <color rgb="FF33CC33"/>
       <color rgb="FFFF33CC"/>
@@ -871,9 +1455,6 @@
       <color rgb="FF99FFCC"/>
       <color rgb="FFEFFD6F"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFFF7F61"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1173,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,58 +3478,59 @@
     </row>
     <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="I20" s="10"/>
+      <c r="L20" s="18"/>
       <c r="T20" s="12">
         <v>0</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="18">
         <f>IF(B2=0,0,(U$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="18">
         <f t="shared" ref="V20:AG20" si="34">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="18">
         <f>IF(F2=0,0,(Y$19+$T20*2)/2+2)</f>
         <v>4</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="18">
         <f t="shared" si="34"/>
         <v>5</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="AB20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="18">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="AD20" s="15">
+      <c r="AD20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="18">
         <f t="shared" si="34"/>
         <v>7</v>
       </c>
-      <c r="AF20" s="15">
+      <c r="AF20" s="18">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="18">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
@@ -2962,55 +3544,55 @@
         <f t="shared" ref="T21:T32" si="35">T20+1</f>
         <v>1</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="18">
         <f t="shared" ref="U21:U32" si="36">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="18">
         <f t="shared" ref="V21:V32" si="37">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="18">
         <f t="shared" ref="W21:W32" si="38">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="18">
         <f t="shared" ref="X21:X32" si="39">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="18">
         <f t="shared" ref="Y21:Y32" si="40">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="Z21" s="18">
         <f t="shared" ref="Z21:Z32" si="41">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="18">
         <f t="shared" ref="AA21:AA32" si="42">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
         <v>6</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="18">
         <f t="shared" ref="AB21:AB32" si="43">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="18">
         <f t="shared" ref="AC21:AC32" si="44">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
         <v>7</v>
       </c>
-      <c r="AD21" s="15">
+      <c r="AD21" s="18">
         <f t="shared" ref="AD21:AD32" si="45">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="18">
         <f t="shared" ref="AE21:AE32" si="46">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
         <v>8</v>
       </c>
-      <c r="AF21" s="15">
+      <c r="AF21" s="18">
         <f t="shared" ref="AF21:AF32" si="47">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="16">
+      <c r="AG21" s="18">
         <f t="shared" ref="AG21:AG32" si="48">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
@@ -3024,55 +3606,55 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X22" s="15">
+      <c r="X22" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="15">
+      <c r="Z22" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="18">
         <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="18">
         <f t="shared" si="44"/>
         <v>8</v>
       </c>
-      <c r="AD22" s="15">
+      <c r="AD22" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="16">
+      <c r="AF22" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="16">
+      <c r="AG22" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3082,59 +3664,63 @@
       </c>
     </row>
     <row r="23" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>IF(U$19*3+$T20*4&gt;12,0,1)</f>
+        <v>1</v>
+      </c>
       <c r="T23" s="12">
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X23" s="15">
+      <c r="X23" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="18">
         <f t="shared" si="40"/>
         <v>7</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="Z23" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="18">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="15">
+      <c r="AD23" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="16">
+      <c r="AE23" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="16">
+      <c r="AF23" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="16">
+      <c r="AG23" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3148,55 +3734,55 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X24" s="15">
+      <c r="X24" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="18">
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="Z24" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="16">
+      <c r="AD24" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="16">
+      <c r="AE24" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="16">
+      <c r="AF24" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="16">
+      <c r="AG24" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3210,55 +3796,55 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X25" s="15">
+      <c r="X25" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="16">
+      <c r="AC25" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="16">
+      <c r="AD25" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="16">
+      <c r="AE25" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="16">
+      <c r="AF25" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="16">
+      <c r="AG25" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3272,55 +3858,55 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="18">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="15">
+      <c r="Z26" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AB26" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AC26" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="16">
+      <c r="AD26" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="16">
+      <c r="AE26" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="16">
+      <c r="AF26" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="16">
+      <c r="AG26" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3337,55 +3923,55 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X27" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="15">
+      <c r="Z27" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="16">
+      <c r="AA27" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="16">
+      <c r="AB27" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AC27" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="16">
+      <c r="AD27" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="16">
+      <c r="AE27" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="16">
+      <c r="AF27" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="16">
+      <c r="AG27" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3399,55 +3985,55 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="16">
+      <c r="Z28" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="16">
+      <c r="AA28" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="16">
+      <c r="AB28" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="16">
+      <c r="AC28" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="16">
+      <c r="AD28" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="16">
+      <c r="AE28" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="16">
+      <c r="AF28" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="16">
+      <c r="AG28" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3461,55 +4047,55 @@
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X29" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="Y29" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="16">
+      <c r="Z29" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="16">
+      <c r="AA29" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="16">
+      <c r="AB29" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="16">
+      <c r="AC29" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="16">
+      <c r="AD29" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="16">
+      <c r="AE29" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="16">
+      <c r="AF29" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="16">
+      <c r="AG29" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3523,55 +4109,55 @@
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="Y30" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="16">
+      <c r="Z30" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="16">
+      <c r="AA30" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="16">
+      <c r="AB30" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="16">
+      <c r="AC30" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="16">
+      <c r="AD30" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="16">
+      <c r="AE30" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="16">
+      <c r="AF30" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="16">
+      <c r="AG30" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3585,55 +4171,55 @@
         <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W31" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="16">
+      <c r="Y31" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="16">
+      <c r="Z31" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="16">
+      <c r="AA31" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="16">
+      <c r="AB31" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="16">
+      <c r="AC31" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="16">
+      <c r="AD31" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="16">
+      <c r="AE31" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="16">
+      <c r="AF31" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="16">
+      <c r="AG31" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3647,55 +4233,55 @@
         <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V32" s="16">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="16">
+      <c r="V32" s="18">
+        <f>IF(C14=0,0,(V$19+$T32*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="18">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32" s="18">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="16">
+      <c r="Y32" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="16">
+      <c r="Z32" s="18">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="16">
+      <c r="AA32" s="18">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="16">
+      <c r="AB32" s="18">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="16">
+      <c r="AC32" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="16">
+      <c r="AD32" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="16">
+      <c r="AE32" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="16">
+      <c r="AF32" s="18">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="16">
+      <c r="AG32" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3712,7 +4298,7 @@
         <f>SUM(U20:U32)</f>
         <v>8</v>
       </c>
-      <c r="V33" s="19">
+      <c r="V33" s="24">
         <f t="shared" ref="V33:AH33" si="50">SUM(V20:V32)</f>
         <v>0</v>
       </c>
@@ -3720,7 +4306,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="X33" s="19">
+      <c r="X33" s="24">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -3728,7 +4314,7 @@
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="Z33" s="19">
+      <c r="Z33" s="24">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -3736,7 +4322,7 @@
         <f t="shared" si="50"/>
         <v>26</v>
       </c>
-      <c r="AB33" s="19">
+      <c r="AB33" s="24">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -3744,7 +4330,7 @@
         <f t="shared" si="50"/>
         <v>21</v>
       </c>
-      <c r="AD33" s="19">
+      <c r="AD33" s="24">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -3752,7 +4338,7 @@
         <f t="shared" si="50"/>
         <v>15</v>
       </c>
-      <c r="AF33" s="19">
+      <c r="AF33" s="24">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -3767,23 +4353,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+      <formula>MOD($T20*4+U$19*3,2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+      <formula>U$19+$T20&gt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+      <formula>U$19+$T20&lt;4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33:AG33">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -775,7 +775,77 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,6 +856,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99FFCC"/>
         </patternFill>
       </fill>
@@ -793,6 +926,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF66CCFF"/>
         </patternFill>
       </fill>
@@ -800,6 +996,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
@@ -807,6 +1066,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF33CC33"/>
         </patternFill>
       </fill>
@@ -814,6 +1136,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -821,6 +1199,83 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -836,76 +1291,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1445,6 +1830,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFF7F61"/>
       <color rgb="FFFFFF66"/>
@@ -1454,7 +1840,6 @@
       <color rgb="FF66CCFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFEFFD6F"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1755,7 +2140,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,36 +4738,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD($T20*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>U$19+$T20&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
-      <formula>U$19+$T20&lt;4</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>OR(AND(U$19+$T20&lt;=4,$T20&gt;0),U$19+$T20&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>U$19+$T20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:AG33">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -194,7 +194,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,30 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F61"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -715,12 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,7 +746,70 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="139">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,6 +820,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -793,6 +883,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9933"/>
         </patternFill>
       </fill>
@@ -800,6 +904,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -807,6 +974,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -814,6 +995,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -856,6 +1072,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -863,6 +1128,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9933"/>
         </patternFill>
       </fill>
@@ -870,6 +1149,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7F61"/>
         </patternFill>
       </fill>
@@ -877,6 +1219,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -884,6 +1296,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -891,6 +1317,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -940,6 +1401,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8C71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9933"/>
         </patternFill>
       </fill>
@@ -947,6 +1478,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF643F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7F61"/>
         </patternFill>
       </fill>
@@ -1017,6 +1569,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9933"/>
         </patternFill>
       </fill>
@@ -1094,7 +1653,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF9933"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1109,671 +1668,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1830,6 +1724,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8C71"/>
+      <color rgb="FFFF643F"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFF7F61"/>
@@ -1837,9 +1734,6 @@
       <color rgb="FFFF0000"/>
       <color rgb="FF33CC33"/>
       <color rgb="FFFF33CC"/>
-      <color rgb="FF66CCFF"/>
-      <color rgb="FF99FFCC"/>
-      <color rgb="FFEFFD6F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2139,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,31 +2171,31 @@
       <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>15</v>
       </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
         <v>49</v>
       </c>
-      <c r="M2" s="15">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
         <v>119</v>
       </c>
       <c r="O2" s="8">
@@ -2327,39 +2221,39 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AC2" s="14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AE2" s="14">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG2" s="18">
+      <c r="AG2" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -2382,34 +2276,34 @@
       <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
         <v>8</v>
       </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <v>76</v>
       </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
         <v>237</v>
       </c>
-      <c r="M3" s="15">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
         <v>0</v>
       </c>
       <c r="O3" s="8">
@@ -2432,43 +2326,43 @@
         <f t="shared" ref="W3:W14" si="8">IF(D3=0,0,(W$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="14">
         <f t="shared" ref="X3:X14" si="9">IF(E3=0,0,(X$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="14">
         <f t="shared" ref="Y3:Y14" si="10">IF(F3=0,0,(Y$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="14">
         <f t="shared" ref="Z3:Z14" si="11">IF(G3=0,0,(Z$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="14">
         <f t="shared" ref="AA3:AA14" si="12">IF(H3=0,0,(AA$1*3+$T3*4)/2)</f>
         <v>11</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <f t="shared" ref="AB3:AB14" si="13">IF(I3=0,0,(AB$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="14">
         <f t="shared" ref="AC3:AC14" si="14">IF(J3=0,0,(AC$1*3+$T3*4)/2)</f>
         <v>14</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="14">
         <f t="shared" ref="AD3:AD14" si="15">IF(K3=0,0,(AD$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="14">
         <f t="shared" ref="AE3:AE14" si="16">IF(L3=0,0,(AE$1*3+$T3*4)/2)</f>
         <v>17</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="14">
         <f t="shared" ref="AF3:AF14" si="17">IF(M3=0,0,(AF$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="14">
         <f t="shared" ref="AG3:AG14" si="18">IF(N3=0,0,(AG$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
@@ -2488,37 +2382,37 @@
       <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
         <v>38</v>
       </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>128</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
         <v>0</v>
       </c>
       <c r="O4" s="8">
@@ -2537,47 +2431,47 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="14">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="14">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AF4" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2594,40 +2488,40 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
         <v>19</v>
       </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
         <v>0</v>
       </c>
       <c r="O5" s="8">
@@ -2642,51 +2536,51 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="14">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="14">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2700,43 +2594,43 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
         <v>7</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
         <v>0</v>
       </c>
       <c r="O6" s="8">
@@ -2747,55 +2641,55 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="14">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="17">
+      <c r="AD6" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AG6" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2809,43 +2703,43 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
         <v>0</v>
       </c>
       <c r="O7" s="8">
@@ -2856,55 +2750,55 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AD7" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AG7" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2921,43 +2815,43 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
         <v>0</v>
       </c>
       <c r="O8" s="8">
@@ -2968,55 +2862,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="14">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AB8" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AC8" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="17">
+      <c r="AD8" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AF8" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3030,43 +2924,43 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
         <v>0</v>
       </c>
       <c r="O9" s="8">
@@ -3077,55 +2971,55 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3139,43 +3033,43 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
         <v>0</v>
       </c>
       <c r="O10" s="8">
@@ -3186,55 +3080,55 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3248,43 +3142,43 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -3295,55 +3189,55 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="17">
+      <c r="AB11" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AD11" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AG11" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3357,43 +3251,43 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -3404,55 +3298,55 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3466,43 +3360,43 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
         <v>0</v>
       </c>
       <c r="O13" s="8">
@@ -3513,55 +3407,55 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="17">
+      <c r="AB13" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="17">
+      <c r="AD13" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AF13" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="17">
+      <c r="AG13" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3575,43 +3469,43 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
         <v>0</v>
       </c>
       <c r="O14" s="8">
@@ -3622,55 +3516,55 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Y14" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="Z14" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="17">
+      <c r="AB14" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="17">
+      <c r="AC14" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="AD14" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AF14" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AG14" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3683,7 +3577,7 @@
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="19">
         <f>SUM(B2:B14)</f>
         <v>1</v>
       </c>
@@ -3691,7 +3585,7 @@
         <f t="shared" ref="C15:O15" si="20">SUM(C2:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="19">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3699,7 +3593,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="19">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
@@ -3707,7 +3601,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="19">
         <f t="shared" si="20"/>
         <v>66</v>
       </c>
@@ -3715,7 +3609,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="19">
         <f t="shared" si="20"/>
         <v>219</v>
       </c>
@@ -3723,7 +3617,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="19">
         <f t="shared" si="20"/>
         <v>286</v>
       </c>
@@ -3731,7 +3625,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="19">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
@@ -3739,7 +3633,7 @@
         <f t="shared" si="20"/>
         <v>705</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="U15" s="7">
@@ -3774,7 +3668,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="19">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
@@ -3794,7 +3688,7 @@
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="AH15" s="22">
+      <c r="AH15" s="17">
         <f t="shared" si="19"/>
         <v>184</v>
       </c>
@@ -3857,65 +3751,65 @@
         <f t="shared" ref="AG19" si="33">AF19+1</f>
         <v>12</v>
       </c>
-      <c r="AH19" s="20" t="s">
+      <c r="AH19" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="I20" s="10"/>
-      <c r="L20" s="18"/>
+      <c r="L20" s="14"/>
       <c r="T20" s="12">
         <v>0</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="14">
         <f>IF(B2=0,0,(U$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="14">
         <f t="shared" ref="V20:AG20" si="34">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="14">
         <f>IF(F2=0,0,(Y$19+$T20*2)/2+2)</f>
         <v>4</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="14">
         <f t="shared" si="34"/>
         <v>5</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="14">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AE20" s="14">
         <f t="shared" si="34"/>
         <v>7</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="14">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="14">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
@@ -3929,55 +3823,55 @@
         <f t="shared" ref="T21:T32" si="35">T20+1</f>
         <v>1</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="14">
         <f t="shared" ref="U21:U32" si="36">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="18">
-        <f t="shared" ref="V21:V32" si="37">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="18">
+      <c r="V21" s="14">
+        <f t="shared" ref="V21:V31" si="37">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
         <f t="shared" ref="W21:W32" si="38">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="14">
         <f t="shared" ref="X21:X32" si="39">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="14">
         <f t="shared" ref="Y21:Y32" si="40">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="14">
         <f t="shared" ref="Z21:Z32" si="41">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="14">
         <f t="shared" ref="AA21:AA32" si="42">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
         <v>6</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="14">
         <f t="shared" ref="AB21:AB32" si="43">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="14">
         <f t="shared" ref="AC21:AC32" si="44">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
         <v>7</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="14">
         <f t="shared" ref="AD21:AD32" si="45">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="14">
         <f t="shared" ref="AE21:AE32" si="46">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
         <v>8</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="14">
         <f t="shared" ref="AF21:AF32" si="47">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AG21" s="14">
         <f t="shared" ref="AG21:AG32" si="48">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
@@ -3991,55 +3885,55 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AA22" s="14">
         <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AB22" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="14">
         <f t="shared" si="44"/>
         <v>8</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AE22" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AF22" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AG22" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4057,55 +3951,55 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23" s="14">
         <f t="shared" si="40"/>
         <v>7</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23" s="14">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AB23" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AC23" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4119,55 +4013,55 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24" s="14">
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AB24" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AE24" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AG24" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4181,55 +4075,55 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4243,55 +4137,55 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="14">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="18">
+      <c r="AE26" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AG26" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4308,55 +4202,55 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Y27" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AA27" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AC27" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AE27" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AG27" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4370,55 +4264,55 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="Y28" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AA28" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AE28" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="18">
+      <c r="AF28" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AG28" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4432,55 +4326,55 @@
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="Y29" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AA29" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AC29" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="18">
+      <c r="AE29" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4494,55 +4388,55 @@
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="Y30" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="Z30" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="18">
+      <c r="AA30" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="18">
+      <c r="AB30" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AC30" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="18">
+      <c r="AD30" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="18">
+      <c r="AE30" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="18">
+      <c r="AF30" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AG30" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4556,55 +4450,55 @@
         <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V31" s="18">
+      <c r="V31" s="14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="Y31" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="Z31" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AA31" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AB31" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="18">
+      <c r="AD31" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AE31" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="18">
+      <c r="AF31" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="18">
+      <c r="AG31" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4618,55 +4512,55 @@
         <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="14">
         <f>IF(C14=0,0,(V$19+$T32*2)/2+2)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="14">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="X32" s="18">
+      <c r="X32" s="14">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="Y32" s="14">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="18">
+      <c r="Z32" s="14">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AA32" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="14">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="14">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="18">
+      <c r="AD32" s="14">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="18">
+      <c r="AE32" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="18">
+      <c r="AF32" s="14">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AG32" s="14">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -4676,14 +4570,14 @@
       </c>
     </row>
     <row r="33" spans="20:34" x14ac:dyDescent="0.25">
-      <c r="T33" s="21" t="s">
+      <c r="T33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="U33" s="7">
         <f>SUM(U20:U32)</f>
         <v>8</v>
       </c>
-      <c r="V33" s="24">
+      <c r="V33" s="19">
         <f t="shared" ref="V33:AH33" si="50">SUM(V20:V32)</f>
         <v>0</v>
       </c>
@@ -4691,7 +4585,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="X33" s="24">
+      <c r="X33" s="19">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -4699,7 +4593,7 @@
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="Z33" s="19">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -4707,15 +4601,15 @@
         <f t="shared" si="50"/>
         <v>26</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AB33" s="19">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="24">
+      <c r="AC33" s="19">
         <f t="shared" si="50"/>
         <v>21</v>
       </c>
-      <c r="AD33" s="24">
+      <c r="AD33" s="19">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -4723,7 +4617,7 @@
         <f t="shared" si="50"/>
         <v>15</v>
       </c>
-      <c r="AF33" s="24">
+      <c r="AF33" s="19">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -4731,46 +4625,89 @@
         <f t="shared" si="50"/>
         <v>8</v>
       </c>
-      <c r="AH33" s="23">
+      <c r="AH33" s="18">
         <f t="shared" si="50"/>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="24" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="23" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="22" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="21" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="20" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="18" stopIfTrue="1">
       <formula>MOD($T20*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="17" stopIfTrue="1">
       <formula>U$19+$T20&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="15" stopIfTrue="1">
       <formula>OR(AND(U$19+$T20&lt;=4,$T20&gt;0),U$19+$T20&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="13" stopIfTrue="1">
       <formula>U$19+$T20=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="25" stopIfTrue="1">
+      <formula>(U$19+$T20*2)/2+2&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:AG33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="80" priority="16">
+      <formula>MOD(U$19*3,2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:AG14">
+    <cfRule type="expression" dxfId="79" priority="1" stopIfTrue="1">
+      <formula>U$19+$T2=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
+      <formula>OR(AND(U$19+$T2&lt;=4,$T2&gt;0),U$19+$T2&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+      <formula>U$19+$T2&gt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
+      <formula>MOD($T2*4+U$19*3,2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
+      <formula>U20&gt;8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="7" stopIfTrue="1">
+      <formula>U20=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+      <formula>U20=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
+      <formula>U20=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
+      <formula>U20=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="11" stopIfTrue="1">
+      <formula>U20=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+      <formula>(U$19+$T2*2)/2+2&gt;8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15:AG15">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -746,7 +746,14 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -827,6 +834,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF8C71"/>
         </patternFill>
       </fill>
@@ -912,741 +1003,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF643F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2033,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,82 +3988,79 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="91" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>MOD($T20*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="17" stopIfTrue="1">
-      <formula>U$19+$T20&gt;12</formula>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>U$19+$T20*2&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>OR(AND(U$19+$T20&lt;=4,$T20&gt;0),U$19+$T20&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>U$19+$T20=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="25" stopIfTrue="1">
-      <formula>(U$19+$T20*2)/2+2&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:AG33">
-    <cfRule type="expression" dxfId="80" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:AG14">
-    <cfRule type="expression" dxfId="79" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>U$19+$T2=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>OR(AND(U$19+$T2&lt;=4,$T2&gt;0),U$19+$T2&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>U$19+$T2&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>MOD($T2*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>U20&gt;8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>U20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>U20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>U20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
       <formula>U20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
       <formula>U20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>(U$19+$T2*2)/2+2&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:AG15">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +193,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +394,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -627,6 +689,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -701,6 +772,49 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -746,7 +860,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -835,174 +949,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8C71"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1387,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,43 +1461,43 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
         <v>1</v>
       </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
         <v>1</v>
       </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
         <v>15</v>
       </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26">
         <v>49</v>
       </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="27">
         <v>119</v>
       </c>
       <c r="O2" s="8">
@@ -1561,55 +1507,55 @@
       <c r="T2" s="12">
         <v>0</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="20">
         <f>IF(B2=0,0,(U$1*3+$T2*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="20">
         <f t="shared" ref="V2:AG2" si="2">IF(C2=0,0,(V$1*3+$T2*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="23">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="25">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="26">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AF2" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="27">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1623,43 +1569,43 @@
         <f t="shared" ref="A3:A14" si="3">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>8</v>
       </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
         <v>76</v>
       </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
         <v>237</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
         <v>0</v>
       </c>
       <c r="O3" s="8">
@@ -1670,55 +1616,55 @@
         <f t="shared" ref="T3:T14" si="5">T2+1</f>
         <v>1</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="20">
         <f t="shared" ref="U3:U14" si="6">IF(B3=0,0,(U$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="20">
         <f t="shared" ref="V3:V14" si="7">IF(C3=0,0,(V$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="20">
         <f t="shared" ref="W3:W14" si="8">IF(D3=0,0,(W$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="20">
         <f t="shared" ref="X3:X14" si="9">IF(E3=0,0,(X$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="22">
         <f t="shared" ref="Y3:Y14" si="10">IF(F3=0,0,(Y$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="24">
         <f t="shared" ref="Z3:Z14" si="11">IF(G3=0,0,(Z$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="25">
         <f t="shared" ref="AA3:AA14" si="12">IF(H3=0,0,(AA$1*3+$T3*4)/2)</f>
         <v>11</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="24">
         <f t="shared" ref="AB3:AB14" si="13">IF(I3=0,0,(AB$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="26">
         <f t="shared" ref="AC3:AC14" si="14">IF(J3=0,0,(AC$1*3+$T3*4)/2)</f>
         <v>14</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="24">
         <f t="shared" ref="AD3:AD14" si="15">IF(K3=0,0,(AD$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="27">
         <f t="shared" ref="AE3:AE14" si="16">IF(L3=0,0,(AE$1*3+$T3*4)/2)</f>
         <v>17</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="28">
         <f t="shared" ref="AF3:AF14" si="17">IF(M3=0,0,(AF$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="28">
         <f t="shared" ref="AG3:AG14" si="18">IF(N3=0,0,(AG$1*3+$T3*4)/2)</f>
         <v>0</v>
       </c>
@@ -1732,43 +1678,43 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
         <v>38</v>
       </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
         <v>128</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="K4" s="28">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
         <v>0</v>
       </c>
       <c r="O4" s="8">
@@ -1779,55 +1725,55 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AA4" s="26">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="27">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -1841,43 +1787,43 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>6</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
         <v>19</v>
       </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
         <v>0</v>
       </c>
       <c r="O5" s="8">
@@ -1888,55 +1834,55 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="26">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="27">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -1950,43 +1896,43 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
         <v>7</v>
       </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
         <v>0</v>
       </c>
       <c r="O6" s="8">
@@ -1997,55 +1943,55 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="27">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2059,43 +2005,43 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
         <v>0</v>
       </c>
       <c r="O7" s="8">
@@ -2106,55 +2052,55 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2171,43 +2117,43 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28">
         <v>0</v>
       </c>
       <c r="O8" s="8">
@@ -2218,55 +2164,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="27">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2280,43 +2226,43 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
         <v>0</v>
       </c>
       <c r="O9" s="8">
@@ -2327,55 +2273,55 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2389,43 +2335,43 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
         <v>0</v>
       </c>
       <c r="O10" s="8">
@@ -2436,55 +2382,55 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA10" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AD10" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2498,43 +2444,43 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28">
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -2545,55 +2491,55 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA11" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2607,43 +2553,43 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="14">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28">
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -2654,55 +2600,55 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z12" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AA12" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AB12" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AD12" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2716,43 +2662,43 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
         <v>0</v>
       </c>
       <c r="O13" s="8">
@@ -2763,55 +2709,55 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2820,48 +2766,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28">
         <v>0</v>
       </c>
       <c r="O14" s="8">
@@ -2872,55 +2818,55 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2933,55 +2879,55 @@
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="31">
         <f>SUM(B2:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="32">
         <f t="shared" ref="C15:O15" si="20">SUM(C2:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="31">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="31">
         <f t="shared" si="20"/>
         <v>66</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="31">
         <f t="shared" si="20"/>
         <v>219</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="31">
         <f t="shared" si="20"/>
         <v>286</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="31">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
@@ -2992,55 +2938,55 @@
       <c r="T15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="31">
         <f>SUM(U2:U14)</f>
         <v>12</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="32">
         <f t="shared" ref="V15:AG15" si="21">SUM(V2:V14)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="31">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="31">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="31">
         <f t="shared" si="21"/>
         <v>48</v>
       </c>
-      <c r="AB15" s="19">
+      <c r="AB15" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="19">
+      <c r="AC15" s="31">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AD15" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AE15" s="31">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="AF15" s="19">
+      <c r="AF15" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="31">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
@@ -3049,12 +2995,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T19" s="12"/>
       <c r="U19" s="13">
         <v>0</v>
@@ -3111,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
       <c r="I20" s="10"/>
       <c r="L20" s="14"/>
       <c r="T20" s="12">
@@ -3174,7 +3120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T21" s="12">
         <f t="shared" ref="T21:T32" si="35">T20+1</f>
         <v>1</v>
@@ -3236,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T22" s="12">
         <f t="shared" si="35"/>
         <v>2</v>
@@ -3298,11 +3244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="K23">
-        <f>IF(U$19*3+$T20*4&gt;12,0,1)</f>
-        <v>1</v>
-      </c>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T23" s="12">
         <f t="shared" si="35"/>
         <v>3</v>
@@ -3364,7 +3306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T24" s="12">
         <f t="shared" si="35"/>
         <v>4</v>
@@ -3426,7 +3368,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="14"/>
       <c r="T25" s="12">
         <f t="shared" si="35"/>
         <v>5</v>
@@ -3488,7 +3444,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="14"/>
       <c r="T26" s="12">
         <f t="shared" si="35"/>
         <v>6</v>
@@ -3553,7 +3523,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
       <c r="T27" s="12">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -3615,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T28" s="12">
         <f t="shared" si="35"/>
         <v>8</v>
@@ -3677,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T29" s="12">
         <f t="shared" si="35"/>
         <v>9</v>
@@ -3739,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T30" s="12">
         <f t="shared" si="35"/>
         <v>10</v>
@@ -3801,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T31" s="12">
         <f t="shared" si="35"/>
         <v>11</v>
@@ -3863,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
       <c r="T32" s="13">
         <f t="shared" si="35"/>
         <v>12</v>
@@ -3925,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="20:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
       <c r="T33" s="16" t="s">
         <v>0</v>
       </c>
@@ -3985,6 +3969,201 @@
         <f t="shared" si="50"/>
         <v>97</v>
       </c>
+    </row>
+    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+    </row>
+    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+    </row>
+    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
@@ -4024,46 +4203,6 @@
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:AG14">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>U$19+$T2=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
-      <formula>OR(AND(U$19+$T2&lt;=4,$T2&gt;0),U$19+$T2&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
-      <formula>U$19+$T2&gt;12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
-      <formula>MOD($T2*4+U$19*3,2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
-      <formula>U20&gt;8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>U20=8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>U20=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>U20=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
-      <formula>U20=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
-      <formula>U20=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>(U$19+$T2*2)/2+2&gt;8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U15:AG15">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>MOD(U$19*3,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>∑</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>граней</t>
+  </si>
+  <si>
+    <t>вершин</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -811,10 +814,6 @@
     <xf numFmtId="0" fontId="19" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -860,7 +859,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -871,7 +870,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF8C71"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -942,6 +969,391 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1336,7 +1748,7 @@
   <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,23 +1898,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="L2" s="26">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M2" s="24">
         <v>0</v>
       </c>
       <c r="N2" s="27">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="O2" s="8">
         <f>SUM(B2:N2)</f>
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="T2" s="12">
         <v>0</v>
@@ -1588,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I3" s="24">
         <v>0</v>
       </c>
       <c r="J3" s="26">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="K3" s="24">
         <v>0</v>
       </c>
       <c r="L3" s="27">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="M3" s="28">
         <v>0</v>
@@ -1610,7 +2022,7 @@
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O14" si="4">SUM(B3:N3)</f>
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="T3" s="12">
         <f t="shared" ref="T3:T14" si="5">T2+1</f>
@@ -1697,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="26">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I4" s="24">
         <v>0</v>
       </c>
       <c r="J4" s="27">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="K4" s="28">
         <v>0</v>
@@ -1719,7 +2131,7 @@
       </c>
       <c r="O4" s="8">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="T4" s="12">
         <f t="shared" si="5"/>
@@ -1800,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" s="24">
         <v>0</v>
       </c>
       <c r="H5" s="27">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I5" s="28">
         <v>0</v>
@@ -1828,7 +2240,7 @@
       </c>
       <c r="O5" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="5"/>
@@ -1909,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
@@ -1937,7 +2349,7 @@
       </c>
       <c r="O6" s="8">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="5"/>
@@ -2879,61 +3291,61 @@
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="7">
         <f t="shared" ref="C15:O15" si="20">SUM(C2:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="7">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="G15" s="32">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="7">
         <f t="shared" si="20"/>
-        <v>66</v>
-      </c>
-      <c r="I15" s="32">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="7">
         <f t="shared" si="20"/>
-        <v>219</v>
-      </c>
-      <c r="K15" s="32">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="7">
         <f t="shared" si="20"/>
-        <v>286</v>
-      </c>
-      <c r="M15" s="32">
+        <v>7</v>
+      </c>
+      <c r="M15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="7">
         <f t="shared" si="20"/>
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="20"/>
-        <v>705</v>
+        <v>30</v>
       </c>
       <c r="T15" s="16" t="s">
         <v>0</v>
@@ -2995,71 +3407,183 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19" si="22">B19+1</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19" si="23">C19+1</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19" si="24">D19+1</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="25">E19+1</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19" si="26">F19+1</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ref="H19" si="27">G19+1</f>
+        <v>6</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I19" si="28">H19+1</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" ref="J19" si="29">I19+1</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" ref="K19" si="30">J19+1</f>
+        <v>9</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" ref="L19" si="31">K19+1</f>
+        <v>10</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" ref="M19" si="32">L19+1</f>
+        <v>11</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" ref="N19" si="33">M19+1</f>
+        <v>12</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="T19" s="12"/>
       <c r="U19" s="13">
         <v>0</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" ref="V19" si="22">U19+1</f>
+        <f t="shared" ref="V19" si="34">U19+1</f>
         <v>1</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" ref="W19" si="23">V19+1</f>
+        <f t="shared" ref="W19" si="35">V19+1</f>
         <v>2</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" ref="X19" si="24">W19+1</f>
+        <f t="shared" ref="X19" si="36">W19+1</f>
         <v>3</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" ref="Y19" si="25">X19+1</f>
+        <f t="shared" ref="Y19" si="37">X19+1</f>
         <v>4</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" ref="Z19" si="26">Y19+1</f>
+        <f t="shared" ref="Z19" si="38">Y19+1</f>
         <v>5</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19" si="27">Z19+1</f>
+        <f t="shared" ref="AA19" si="39">Z19+1</f>
         <v>6</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" ref="AB19" si="28">AA19+1</f>
+        <f t="shared" ref="AB19" si="40">AA19+1</f>
         <v>7</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" ref="AC19" si="29">AB19+1</f>
+        <f t="shared" ref="AC19" si="41">AB19+1</f>
         <v>8</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" ref="AD19" si="30">AC19+1</f>
+        <f t="shared" ref="AD19" si="42">AC19+1</f>
         <v>9</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" ref="AE19" si="31">AD19+1</f>
+        <f t="shared" ref="AE19" si="43">AD19+1</f>
         <v>10</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" ref="AF19" si="32">AE19+1</f>
+        <f t="shared" ref="AF19" si="44">AE19+1</f>
         <v>11</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" ref="AG19" si="33">AF19+1</f>
+        <f t="shared" ref="AG19" si="45">AF19+1</f>
         <v>12</v>
       </c>
       <c r="AH19" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="I20" s="10"/>
-      <c r="L20" s="14"/>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>0</v>
+      </c>
+      <c r="B20" s="20">
+        <f>IF(B2=0,0,B$19*3+$A20*4)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" ref="C20:N20" si="46">IF(C2=0,0,C$19*3+$A20*4)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="46"/>
+        <v>12</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="46"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" si="46"/>
+        <v>36</v>
+      </c>
+      <c r="O20" s="8">
+        <f>SUM(B20:N20)</f>
+        <v>120</v>
+      </c>
       <c r="T20" s="12">
         <v>0</v>
       </c>
@@ -3068,15 +3592,15 @@
         <v>0</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" ref="V20:AG20" si="34">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
+        <f t="shared" ref="V20:AG20" si="47">IF(C2=0,0,(V$19+$T20*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y20" s="14">
@@ -3084,35 +3608,35 @@
         <v>4</v>
       </c>
       <c r="Z20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AB20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AC20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="AF20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="AH20" s="8">
@@ -3120,740 +3644,1423 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <f t="shared" ref="A21:A32" si="48">A20+1</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="20">
+        <f t="shared" ref="B21:N32" si="49">IF(B3=0,0,B$19*3+$A21*4)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="49"/>
+        <v>22</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <f t="shared" si="49"/>
+        <v>28</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="49"/>
+        <v>34</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:O33" si="50">SUM(B21:N21)</f>
+        <v>84</v>
+      </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21:T32" si="35">T20+1</f>
+        <f t="shared" ref="T21:T32" si="51">T20+1</f>
         <v>1</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" ref="U21:U32" si="36">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="U21:U32" si="52">IF(B3=0,0,(U$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" ref="V21:V31" si="37">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="V21:V31" si="53">IF(C3=0,0,(V$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" ref="W21:W32" si="38">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="W21:W32" si="54">IF(D3=0,0,(W$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="X21" s="14">
-        <f t="shared" ref="X21:X32" si="39">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="X21:X32" si="55">IF(E3=0,0,(X$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="14">
-        <f t="shared" ref="Y21:Y32" si="40">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="Y21:Y32" si="56">IF(F3=0,0,(Y$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="14">
-        <f t="shared" ref="Z21:Z32" si="41">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="Z21:Z32" si="57">IF(G3=0,0,(Z$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="14">
-        <f t="shared" ref="AA21:AA32" si="42">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AA21:AA32" si="58">IF(H3=0,0,(AA$19+$T21*2)/2+2)</f>
         <v>6</v>
       </c>
       <c r="AB21" s="14">
-        <f t="shared" ref="AB21:AB32" si="43">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AB21:AB32" si="59">IF(I3=0,0,(AB$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="14">
-        <f t="shared" ref="AC21:AC32" si="44">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AC21:AC32" si="60">IF(J3=0,0,(AC$19+$T21*2)/2+2)</f>
         <v>7</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" ref="AD21:AD32" si="45">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AD21:AD32" si="61">IF(K3=0,0,(AD$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="14">
-        <f t="shared" ref="AE21:AE32" si="46">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AE21:AE32" si="62">IF(L3=0,0,(AE$19+$T21*2)/2+2)</f>
         <v>8</v>
       </c>
       <c r="AF21" s="14">
-        <f t="shared" ref="AF21:AF32" si="47">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AF21:AF32" si="63">IF(M3=0,0,(AF$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="14">
-        <f t="shared" ref="AG21:AG32" si="48">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
+        <f t="shared" ref="AG21:AG32" si="64">IF(N3=0,0,(AG$19+$T21*2)/2+2)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" ref="AH21:AH32" si="49">SUM(U21:AG21)</f>
+        <f t="shared" ref="AH21:AH32" si="65">SUM(U21:AG21)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="49"/>
+        <v>26</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="49"/>
+        <v>32</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="50"/>
+        <v>58</v>
+      </c>
       <c r="T22" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W22" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X22" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y22" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z22" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA22" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>7</v>
       </c>
       <c r="AB22" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC22" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE22" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF22" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG22" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="65"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="8">
-        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="49"/>
+        <v>24</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="49"/>
+        <v>30</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="AB23" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="65"/>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T23" s="12">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="U23" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="14">
-        <f t="shared" si="40"/>
-        <v>7</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="14">
-        <f t="shared" si="42"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="20">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <f t="shared" si="49"/>
+        <v>28</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="50"/>
+        <v>28</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="56"/>
         <v>8</v>
       </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="14">
+      <c r="Z24" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="8">
-        <f t="shared" si="49"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T24" s="12">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="U24" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="14">
-        <f t="shared" si="40"/>
-        <v>8</v>
-      </c>
-      <c r="Z24" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="14">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="14">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="8">
-        <f t="shared" si="49"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="22">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="14"/>
       <c r="T25" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="U25" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V25" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W25" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X25" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y25" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z25" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA25" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB25" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC25" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD25" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE25" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF25" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG25" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="8">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="27">
+        <f t="shared" si="49"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="50"/>
+        <v>24</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="T26" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="V26" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X26" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y26" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z26" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA26" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB26" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC26" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE26" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF26" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG26" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="AI26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="P27" s="14"/>
       <c r="T27" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V27" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W27" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X27" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y27" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z27" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA27" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB27" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE27" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF27" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG27" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="8">
-        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="U28" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T28" s="12">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="U28" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="14">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="14">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="14">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="8">
-        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <f t="shared" si="51"/>
+        <v>9</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T29" s="12">
-        <f t="shared" si="35"/>
-        <v>9</v>
-      </c>
-      <c r="U29" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="14">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="14">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="14">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="8">
-        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="U30" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T30" s="12">
-        <f t="shared" si="35"/>
-        <v>10</v>
-      </c>
-      <c r="U30" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="14">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="14">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="14">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="8">
-        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="51"/>
+        <v>11</v>
+      </c>
+      <c r="U31" s="14">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="14">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="14">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="T31" s="12">
-        <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="U31" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="14">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="14">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="14">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="14">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="14">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="14">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="14">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="8">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="28">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="T32" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>12</v>
       </c>
       <c r="U32" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V32" s="14">
@@ -3861,55 +5068,114 @@
         <v>0</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X32" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y32" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z32" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA32" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB32" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC32" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE32" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF32" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG32" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7">
+        <f>SUM(B20:B32)</f>
+        <v>24</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" ref="C33:N33" si="66">SUM(C20:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="66"/>
+        <v>64</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="66"/>
+        <v>96</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="66"/>
+        <v>84</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="66"/>
+        <v>64</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="66"/>
+        <v>36</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="50"/>
+        <v>368</v>
+      </c>
       <c r="T33" s="16" t="s">
         <v>0</v>
       </c>
@@ -3918,59 +5184,59 @@
         <v>8</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" ref="V33:AH33" si="50">SUM(V20:V32)</f>
+        <f t="shared" ref="V33:AH33" si="67">SUM(V20:V32)</f>
         <v>0</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>19</v>
       </c>
       <c r="Z33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>26</v>
       </c>
       <c r="AB33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>21</v>
       </c>
       <c r="AD33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>15</v>
       </c>
       <c r="AF33" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>8</v>
       </c>
       <c r="AH33" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -3985,7 +5251,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
@@ -4000,7 +5266,7 @@
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
@@ -4015,7 +5281,7 @@
       <c r="N43" s="30"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
@@ -4030,7 +5296,7 @@
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -4045,7 +5311,7 @@
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -4060,7 +5326,7 @@
       <c r="N46" s="30"/>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -4075,7 +5341,7 @@
       <c r="N47" s="30"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -4167,40 +5433,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="37" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="36" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="35" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="34" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="33" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="31" stopIfTrue="1">
       <formula>MOD($T20*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="30" stopIfTrue="1">
       <formula>U$19+$T20*2&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
       <formula>OR(AND(U$19+$T20&lt;=4,$T20&gt;0),U$19+$T20&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
       <formula>U$19+$T20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:AG33">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="71" priority="29">
       <formula>MOD(U$19*3,2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:N33">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(B$19*3,2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:N15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(B$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19320" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -871,489 +871,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F61"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1748,7 +1265,7 @@
   <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,11 +3046,11 @@
         <v>0</v>
       </c>
       <c r="B20" s="20">
-        <f>IF(B2=0,0,B$19*3+$A20*4)</f>
+        <f>IF(B2=0,0,B$19+$A20)</f>
         <v>0</v>
       </c>
       <c r="C20" s="20">
-        <f t="shared" ref="C20:N20" si="46">IF(C2=0,0,C$19*3+$A20*4)</f>
+        <f t="shared" ref="C20:N20" si="46">IF(C2=0,0,C$19+$A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="20">
@@ -3546,7 +3063,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="46"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="46"/>
@@ -3554,7 +3071,7 @@
       </c>
       <c r="H20" s="23">
         <f t="shared" si="46"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="46"/>
@@ -3562,7 +3079,7 @@
       </c>
       <c r="J20" s="25">
         <f t="shared" si="46"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" si="46"/>
@@ -3570,7 +3087,7 @@
       </c>
       <c r="L20" s="26">
         <f t="shared" si="46"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M20" s="24">
         <f t="shared" si="46"/>
@@ -3578,11 +3095,11 @@
       </c>
       <c r="N20" s="27">
         <f t="shared" si="46"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O20" s="8">
         <f>SUM(B20:N20)</f>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="T20" s="12">
         <v>0</v>
@@ -3650,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="20">
-        <f t="shared" ref="B21:N32" si="49">IF(B3=0,0,B$19*3+$A21*4)</f>
+        <f t="shared" ref="B21:N21" si="49">IF(B3=0,0,B$19+$A21)</f>
         <v>0</v>
       </c>
       <c r="C21" s="20">
@@ -3675,7 +3192,7 @@
       </c>
       <c r="H21" s="25">
         <f t="shared" si="49"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" si="49"/>
@@ -3683,7 +3200,7 @@
       </c>
       <c r="J21" s="26">
         <f t="shared" si="49"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K21" s="24">
         <f t="shared" si="49"/>
@@ -3691,7 +3208,7 @@
       </c>
       <c r="L21" s="27">
         <f t="shared" si="49"/>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M21" s="28">
         <f t="shared" si="49"/>
@@ -3703,7 +3220,7 @@
       </c>
       <c r="O21" s="8">
         <f t="shared" ref="O21:O33" si="50">SUM(B21:N21)</f>
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="T21" s="12">
         <f t="shared" ref="T21:T32" si="51">T20+1</f>
@@ -3772,60 +3289,60 @@
         <v>2</v>
       </c>
       <c r="B22" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B22:N22" si="66">IF(B4=0,0,B$19+$A22)</f>
         <v>0</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F22" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="49"/>
-        <v>26</v>
+        <f t="shared" si="66"/>
+        <v>8</v>
       </c>
       <c r="I22" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J22" s="27">
-        <f t="shared" si="49"/>
-        <v>32</v>
+        <f t="shared" si="66"/>
+        <v>10</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M22" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="50"/>
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="T22" s="12">
         <f t="shared" si="51"/>
@@ -3894,60 +3411,60 @@
         <v>3</v>
       </c>
       <c r="B23" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B23:N23" si="67">IF(B5=0,0,B$19+$A23)</f>
         <v>0</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="D23" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E23" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F23" s="26">
-        <f t="shared" si="49"/>
-        <v>24</v>
+        <f t="shared" si="67"/>
+        <v>7</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="49"/>
-        <v>30</v>
+        <f t="shared" si="67"/>
+        <v>9</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="50"/>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="T23" s="12">
         <f t="shared" si="51"/>
@@ -4016,60 +3533,60 @@
         <v>4</v>
       </c>
       <c r="B24" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B24:N24" si="68">IF(B6=0,0,B$19+$A24)</f>
         <v>0</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="D24" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E24" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F24" s="27">
-        <f t="shared" si="49"/>
-        <v>28</v>
+        <f t="shared" si="68"/>
+        <v>8</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N24" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="50"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="51"/>
@@ -4138,55 +3655,55 @@
         <v>5</v>
       </c>
       <c r="B25" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B25:N25" si="69">IF(B7=0,0,B$19+$A25)</f>
         <v>0</v>
       </c>
       <c r="C25" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="D25" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O25" s="8">
@@ -4261,60 +3778,60 @@
         <v>6</v>
       </c>
       <c r="B26" s="27">
-        <f t="shared" si="49"/>
-        <v>24</v>
+        <f t="shared" ref="B26:N26" si="70">IF(B8=0,0,B$19+$A26)</f>
+        <v>6</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="50"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>4</v>
@@ -4389,55 +3906,55 @@
         <v>7</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B27:N27" si="71">IF(B9=0,0,B$19+$A27)</f>
         <v>0</v>
       </c>
       <c r="C27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O27" s="8">
@@ -4512,55 +4029,55 @@
         <v>8</v>
       </c>
       <c r="B28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B28:N28" si="72">IF(B10=0,0,B$19+$A28)</f>
         <v>0</v>
       </c>
       <c r="C28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="D28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="M28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N28" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O28" s="8">
@@ -4634,55 +4151,55 @@
         <v>9</v>
       </c>
       <c r="B29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B29:N29" si="73">IF(B11=0,0,B$19+$A29)</f>
         <v>0</v>
       </c>
       <c r="C29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="D29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="F29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N29" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O29" s="8">
@@ -4756,55 +4273,55 @@
         <v>10</v>
       </c>
       <c r="B30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B30:N30" si="74">IF(B12=0,0,B$19+$A30)</f>
         <v>0</v>
       </c>
       <c r="C30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N30" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O30" s="8">
@@ -4878,55 +4395,55 @@
         <v>11</v>
       </c>
       <c r="B31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B31:N31" si="75">IF(B13=0,0,B$19+$A31)</f>
         <v>0</v>
       </c>
       <c r="C31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="O31" s="8">
@@ -5000,55 +4517,55 @@
         <v>12</v>
       </c>
       <c r="B32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="B32:N32" si="76">IF(B14=0,0,B$19+$A32)</f>
         <v>0</v>
       </c>
       <c r="C32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="L32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="M32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N32" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O32" s="8">
@@ -5122,59 +4639,59 @@
       </c>
       <c r="B33" s="7">
         <f>SUM(B20:B32)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" ref="C33:N33" si="66">SUM(C20:C32)</f>
+        <f t="shared" ref="C33:N33" si="77">SUM(C20:C32)</f>
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="66"/>
-        <v>64</v>
+        <f t="shared" si="77"/>
+        <v>19</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="66"/>
-        <v>96</v>
+        <f t="shared" si="77"/>
+        <v>30</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="66"/>
-        <v>84</v>
+        <f t="shared" si="77"/>
+        <v>27</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="66"/>
-        <v>64</v>
+        <f t="shared" si="77"/>
+        <v>21</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="66"/>
-        <v>36</v>
+        <f t="shared" si="77"/>
+        <v>12</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="50"/>
-        <v>368</v>
+        <v>115</v>
       </c>
       <c r="T33" s="16" t="s">
         <v>0</v>
@@ -5184,55 +4701,55 @@
         <v>8</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" ref="V33:AH33" si="67">SUM(V20:V32)</f>
+        <f t="shared" ref="V33:AH33" si="78">SUM(V20:V32)</f>
         <v>0</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>19</v>
       </c>
       <c r="Z33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>26</v>
       </c>
       <c r="AB33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AC33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>21</v>
       </c>
       <c r="AD33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>15</v>
       </c>
       <c r="AF33" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>8</v>
       </c>
       <c r="AH33" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>97</v>
       </c>
     </row>
@@ -5433,49 +4950,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U20:AG32">
-    <cfRule type="cellIs" dxfId="81" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="36" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="35" stopIfTrue="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="34" stopIfTrue="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="33" stopIfTrue="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="31" stopIfTrue="1">
       <formula>MOD($T20*4+U$19*3,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="30" stopIfTrue="1">
       <formula>U$19+$T20*2&gt;12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
       <formula>OR(AND(U$19+$T20&lt;=4,$T20&gt;0),U$19+$T20&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="26" stopIfTrue="1">
       <formula>U$19+$T20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33:AG33">
-    <cfRule type="expression" dxfId="71" priority="29">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>MOD(U$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:N33">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(B$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:N15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(B$19*3,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
